--- a/end/base/班级导入模板.xlsx
+++ b/end/base/班级导入模板.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanted\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA198E2-AA5C-47FA-9F46-851F1CCBB608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3AF51A-B4D9-4AFF-BACB-3D23E3DEE4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,12 +46,15 @@
     <t>所在部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>严格按照系统上存入的数据名称来填写</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +105,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -125,11 +135,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +245,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -450,10 +567,12 @@
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="18.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="6" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="31.625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -473,7 +592,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -484,7 +603,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -495,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -506,7 +625,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -515,9 +634,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -526,9 +651,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -537,9 +666,13 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -548,9 +681,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -560,7 +697,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -570,7 +707,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -580,7 +717,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -590,7 +727,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +737,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -610,7 +747,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -620,7 +757,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1051,8 +1188,11 @@
       <c r="H58" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:M8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/end/base/班级导入模板.xlsx
+++ b/end/base/班级导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3AF51A-B4D9-4AFF-BACB-3D23E3DEE4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546973D9-4A0C-4363-96AB-9F38CAC16DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,9 +45,6 @@
   <si>
     <t>所在部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
@@ -107,27 +104,21 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -135,91 +126,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,32 +158,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +444,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -625,7 +512,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -634,15 +521,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -651,13 +536,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -666,13 +551,13 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -681,11 +566,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
@@ -1188,9 +1073,6 @@
       <c r="H58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I5:M8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
